--- a/docs/AI_Talent_Landscape_Seed_Hubs.xlsx
+++ b/docs/AI_Talent_Landscape_Seed_Hubs.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davemendoza/Desktop/Research_First_Sourcer_Automation/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C798BBB6-4215-1C44-B33E-115B66623F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B959B4-A060-5B43-9E75-014DDB8956BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27060" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRIORITY_INDEX" sheetId="1" r:id="rId1"/>
-    <sheet name="P0_GH_REPO_CONTRIB (PRIORITY)" sheetId="2" r:id="rId2"/>
-    <sheet name="P0_CONFERENCES (PRIORITY)" sheetId="3" r:id="rId3"/>
-    <sheet name="P0_PATENTS (PRIORITY)" sheetId="4" r:id="rId4"/>
-    <sheet name="P1_AWARDS (PRIORITY)" sheetId="5" r:id="rId5"/>
-    <sheet name="P1_DERIVED_GITHUBIO (PRIORITY)" sheetId="6" r:id="rId6"/>
-    <sheet name="P1_COMPANY_XRAY (PRIORITY)" sheetId="7" r:id="rId7"/>
-    <sheet name="MASTER_SEED_HUBS" sheetId="8" r:id="rId8"/>
+    <sheet name="MASTER_SEED_HUBS" sheetId="8" r:id="rId2"/>
+    <sheet name="P0_GH_REPO_CONTRIB (PRIORITY)" sheetId="2" r:id="rId3"/>
+    <sheet name="P0_CONFERENCES (PRIORITY)" sheetId="3" r:id="rId4"/>
+    <sheet name="P0_PATENTS (PRIORITY)" sheetId="4" r:id="rId5"/>
+    <sheet name="P1_AWARDS (PRIORITY)" sheetId="5" r:id="rId6"/>
+    <sheet name="P1_DERIVED_GITHUBIO (PRIORITY)" sheetId="6" r:id="rId7"/>
+    <sheet name="P1_COMPANY_XRAY (PRIORITY)" sheetId="7" r:id="rId8"/>
     <sheet name="ReadMe" sheetId="9" r:id="rId9"/>
     <sheet name="Tier1" sheetId="10" r:id="rId10"/>
     <sheet name="Tier2" sheetId="11" r:id="rId11"/>
@@ -1996,7 +1996,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2010,6 +2010,19 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2042,7 +2055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2054,12 +2067,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0432FF"/>
+        <name val="Calibri (Body)"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0432FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2079,7 +2115,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Organization"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Seed_Hub_Class"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Seed_Hub_Type"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Seed_Hub_URL"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Seed_Hub_URL" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Primary_Enumeration_Target"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Python_Adapter"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Expected_Output"/>
@@ -2522,7 +2558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+    <sheetView zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4935,9 +4971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11799,19 +11835,3405 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K96"/>
+  <sheetViews>
+    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="28" style="6" customWidth="1"/>
+    <col min="7" max="11" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" t="s">
+        <v>210</v>
+      </c>
+      <c r="J13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" t="s">
+        <v>211</v>
+      </c>
+      <c r="K19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" t="s">
+        <v>209</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" t="s">
+        <v>209</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
+        <v>208</v>
+      </c>
+      <c r="H31" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" t="s">
+        <v>210</v>
+      </c>
+      <c r="J33" t="s">
+        <v>211</v>
+      </c>
+      <c r="K33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H35" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" t="s">
+        <v>211</v>
+      </c>
+      <c r="K35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" t="s">
+        <v>210</v>
+      </c>
+      <c r="J37" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C39" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>208</v>
+      </c>
+      <c r="H39" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" t="s">
+        <v>210</v>
+      </c>
+      <c r="J39" t="s">
+        <v>211</v>
+      </c>
+      <c r="K39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" t="s">
+        <v>209</v>
+      </c>
+      <c r="I41" t="s">
+        <v>210</v>
+      </c>
+      <c r="J41" t="s">
+        <v>211</v>
+      </c>
+      <c r="K41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" t="s">
+        <v>206</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" t="s">
+        <v>208</v>
+      </c>
+      <c r="H43" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" t="s">
+        <v>210</v>
+      </c>
+      <c r="J43" t="s">
+        <v>211</v>
+      </c>
+      <c r="K43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" t="s">
+        <v>291</v>
+      </c>
+      <c r="C45" t="s">
+        <v>292</v>
+      </c>
+      <c r="D45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G45" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" t="s">
+        <v>210</v>
+      </c>
+      <c r="J45" t="s">
+        <v>211</v>
+      </c>
+      <c r="K45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>262</v>
+      </c>
+      <c r="B47" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G47" t="s">
+        <v>208</v>
+      </c>
+      <c r="H47" t="s">
+        <v>209</v>
+      </c>
+      <c r="I47" t="s">
+        <v>210</v>
+      </c>
+      <c r="J47" t="s">
+        <v>211</v>
+      </c>
+      <c r="K47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" t="s">
+        <v>291</v>
+      </c>
+      <c r="C49" t="s">
+        <v>300</v>
+      </c>
+      <c r="D49" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G49" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49" t="s">
+        <v>210</v>
+      </c>
+      <c r="J49" t="s">
+        <v>211</v>
+      </c>
+      <c r="K49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G51" t="s">
+        <v>208</v>
+      </c>
+      <c r="H51" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" t="s">
+        <v>211</v>
+      </c>
+      <c r="K51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" t="s">
+        <v>308</v>
+      </c>
+      <c r="C53" t="s">
+        <v>309</v>
+      </c>
+      <c r="D53" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G53" t="s">
+        <v>208</v>
+      </c>
+      <c r="H53" t="s">
+        <v>209</v>
+      </c>
+      <c r="I53" t="s">
+        <v>210</v>
+      </c>
+      <c r="J53" t="s">
+        <v>211</v>
+      </c>
+      <c r="K53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" t="s">
+        <v>308</v>
+      </c>
+      <c r="C55" t="s">
+        <v>313</v>
+      </c>
+      <c r="D55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G55" t="s">
+        <v>208</v>
+      </c>
+      <c r="H55" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" t="s">
+        <v>210</v>
+      </c>
+      <c r="J55" t="s">
+        <v>211</v>
+      </c>
+      <c r="K55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" t="s">
+        <v>308</v>
+      </c>
+      <c r="C57" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G57" t="s">
+        <v>208</v>
+      </c>
+      <c r="H57" t="s">
+        <v>209</v>
+      </c>
+      <c r="I57" t="s">
+        <v>210</v>
+      </c>
+      <c r="J57" t="s">
+        <v>211</v>
+      </c>
+      <c r="K57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" t="s">
+        <v>321</v>
+      </c>
+      <c r="E59" t="s">
+        <v>322</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G59" t="s">
+        <v>324</v>
+      </c>
+      <c r="H59" t="s">
+        <v>325</v>
+      </c>
+      <c r="I59" t="s">
+        <v>326</v>
+      </c>
+      <c r="J59" t="s">
+        <v>327</v>
+      </c>
+      <c r="K59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" t="s">
+        <v>300</v>
+      </c>
+      <c r="D61" t="s">
+        <v>321</v>
+      </c>
+      <c r="E61" t="s">
+        <v>322</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G61" t="s">
+        <v>324</v>
+      </c>
+      <c r="H61" t="s">
+        <v>325</v>
+      </c>
+      <c r="I61" t="s">
+        <v>326</v>
+      </c>
+      <c r="J61" t="s">
+        <v>327</v>
+      </c>
+      <c r="K61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s">
+        <v>78</v>
+      </c>
+      <c r="J63" t="s">
+        <v>79</v>
+      </c>
+      <c r="K63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s">
+        <v>78</v>
+      </c>
+      <c r="J65" t="s">
+        <v>79</v>
+      </c>
+      <c r="K65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" t="s">
+        <v>85</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s">
+        <v>78</v>
+      </c>
+      <c r="J67" t="s">
+        <v>79</v>
+      </c>
+      <c r="K67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s">
+        <v>78</v>
+      </c>
+      <c r="J69" t="s">
+        <v>79</v>
+      </c>
+      <c r="K69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s">
+        <v>78</v>
+      </c>
+      <c r="J71" t="s">
+        <v>79</v>
+      </c>
+      <c r="K71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s">
+        <v>78</v>
+      </c>
+      <c r="J73" t="s">
+        <v>79</v>
+      </c>
+      <c r="K73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" t="s">
+        <v>148</v>
+      </c>
+      <c r="E75" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" t="s">
+        <v>151</v>
+      </c>
+      <c r="H75" t="s">
+        <v>152</v>
+      </c>
+      <c r="I75" t="s">
+        <v>153</v>
+      </c>
+      <c r="J75" t="s">
+        <v>154</v>
+      </c>
+      <c r="K75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H77" t="s">
+        <v>105</v>
+      </c>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+      <c r="K77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" t="s">
+        <v>102</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G79" t="s">
+        <v>104</v>
+      </c>
+      <c r="H79" t="s">
+        <v>105</v>
+      </c>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+      <c r="K79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G81" t="s">
+        <v>104</v>
+      </c>
+      <c r="H81" t="s">
+        <v>105</v>
+      </c>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+      <c r="K81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G83" t="s">
+        <v>104</v>
+      </c>
+      <c r="H83" t="s">
+        <v>105</v>
+      </c>
+      <c r="I83" t="s">
+        <v>106</v>
+      </c>
+      <c r="J83" t="s">
+        <v>107</v>
+      </c>
+      <c r="K83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" t="s">
+        <v>104</v>
+      </c>
+      <c r="H85" t="s">
+        <v>105</v>
+      </c>
+      <c r="I85" t="s">
+        <v>106</v>
+      </c>
+      <c r="J85" t="s">
+        <v>107</v>
+      </c>
+      <c r="K85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G87" t="s">
+        <v>104</v>
+      </c>
+      <c r="H87" t="s">
+        <v>105</v>
+      </c>
+      <c r="I87" t="s">
+        <v>106</v>
+      </c>
+      <c r="J87" t="s">
+        <v>107</v>
+      </c>
+      <c r="K87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" t="s">
+        <v>104</v>
+      </c>
+      <c r="H89" t="s">
+        <v>105</v>
+      </c>
+      <c r="I89" t="s">
+        <v>106</v>
+      </c>
+      <c r="J89" t="s">
+        <v>107</v>
+      </c>
+      <c r="K89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" t="s">
+        <v>102</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G91" t="s">
+        <v>104</v>
+      </c>
+      <c r="H91" t="s">
+        <v>105</v>
+      </c>
+      <c r="I91" t="s">
+        <v>106</v>
+      </c>
+      <c r="J91" t="s">
+        <v>107</v>
+      </c>
+      <c r="K91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" t="s">
+        <v>138</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G93" t="s">
+        <v>104</v>
+      </c>
+      <c r="H93" t="s">
+        <v>105</v>
+      </c>
+      <c r="I93" t="s">
+        <v>106</v>
+      </c>
+      <c r="J93" t="s">
+        <v>140</v>
+      </c>
+      <c r="K93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" t="s">
+        <v>138</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" t="s">
+        <v>104</v>
+      </c>
+      <c r="H95" t="s">
+        <v>105</v>
+      </c>
+      <c r="I95" t="s">
+        <v>106</v>
+      </c>
+      <c r="J95" t="s">
+        <v>140</v>
+      </c>
+      <c r="K95" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+    <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="11" width="28" customWidth="1"/>
+    <col min="3" max="5" width="28" customWidth="1"/>
+    <col min="6" max="7" width="59.83203125" customWidth="1"/>
+    <col min="8" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12732,7 +16154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
@@ -13216,7 +16638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -14038,7 +17460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -14210,7 +17632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -14388,11 +17810,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
@@ -14527,3388 +17949,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K96"/>
-  <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="11" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" t="s">
-        <v>211</v>
-      </c>
-      <c r="K3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J9" t="s">
-        <v>211</v>
-      </c>
-      <c r="K9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G11" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" t="s">
-        <v>209</v>
-      </c>
-      <c r="I11" t="s">
-        <v>210</v>
-      </c>
-      <c r="J11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G13" t="s">
-        <v>208</v>
-      </c>
-      <c r="H13" t="s">
-        <v>209</v>
-      </c>
-      <c r="I13" t="s">
-        <v>210</v>
-      </c>
-      <c r="J13" t="s">
-        <v>211</v>
-      </c>
-      <c r="K13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G15" t="s">
-        <v>208</v>
-      </c>
-      <c r="H15" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" t="s">
-        <v>210</v>
-      </c>
-      <c r="J15" t="s">
-        <v>211</v>
-      </c>
-      <c r="K15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G17" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17" t="s">
-        <v>209</v>
-      </c>
-      <c r="I17" t="s">
-        <v>210</v>
-      </c>
-      <c r="J17" t="s">
-        <v>211</v>
-      </c>
-      <c r="K17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" t="s">
-        <v>243</v>
-      </c>
-      <c r="G19" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" t="s">
-        <v>209</v>
-      </c>
-      <c r="I19" t="s">
-        <v>210</v>
-      </c>
-      <c r="J19" t="s">
-        <v>211</v>
-      </c>
-      <c r="K19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D21" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" t="s">
-        <v>247</v>
-      </c>
-      <c r="G21" t="s">
-        <v>208</v>
-      </c>
-      <c r="H21" t="s">
-        <v>209</v>
-      </c>
-      <c r="I21" t="s">
-        <v>210</v>
-      </c>
-      <c r="J21" t="s">
-        <v>211</v>
-      </c>
-      <c r="K21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" t="s">
-        <v>251</v>
-      </c>
-      <c r="G23" t="s">
-        <v>208</v>
-      </c>
-      <c r="H23" t="s">
-        <v>209</v>
-      </c>
-      <c r="I23" t="s">
-        <v>210</v>
-      </c>
-      <c r="J23" t="s">
-        <v>211</v>
-      </c>
-      <c r="K23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" t="s">
-        <v>206</v>
-      </c>
-      <c r="F25" t="s">
-        <v>255</v>
-      </c>
-      <c r="G25" t="s">
-        <v>208</v>
-      </c>
-      <c r="H25" t="s">
-        <v>209</v>
-      </c>
-      <c r="I25" t="s">
-        <v>210</v>
-      </c>
-      <c r="J25" t="s">
-        <v>211</v>
-      </c>
-      <c r="K25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" t="s">
-        <v>258</v>
-      </c>
-      <c r="G27" t="s">
-        <v>208</v>
-      </c>
-      <c r="H27" t="s">
-        <v>209</v>
-      </c>
-      <c r="I27" t="s">
-        <v>210</v>
-      </c>
-      <c r="J27" t="s">
-        <v>211</v>
-      </c>
-      <c r="K27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>230</v>
-      </c>
-      <c r="B29" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" t="s">
-        <v>261</v>
-      </c>
-      <c r="G29" t="s">
-        <v>208</v>
-      </c>
-      <c r="H29" t="s">
-        <v>209</v>
-      </c>
-      <c r="I29" t="s">
-        <v>210</v>
-      </c>
-      <c r="J29" t="s">
-        <v>211</v>
-      </c>
-      <c r="K29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G31" t="s">
-        <v>208</v>
-      </c>
-      <c r="H31" t="s">
-        <v>209</v>
-      </c>
-      <c r="I31" t="s">
-        <v>210</v>
-      </c>
-      <c r="J31" t="s">
-        <v>211</v>
-      </c>
-      <c r="K31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>262</v>
-      </c>
-      <c r="B33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" t="s">
-        <v>268</v>
-      </c>
-      <c r="D33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G33" t="s">
-        <v>208</v>
-      </c>
-      <c r="H33" t="s">
-        <v>209</v>
-      </c>
-      <c r="I33" t="s">
-        <v>210</v>
-      </c>
-      <c r="J33" t="s">
-        <v>211</v>
-      </c>
-      <c r="K33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>262</v>
-      </c>
-      <c r="B35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" t="s">
-        <v>274</v>
-      </c>
-      <c r="G35" t="s">
-        <v>208</v>
-      </c>
-      <c r="H35" t="s">
-        <v>209</v>
-      </c>
-      <c r="I35" t="s">
-        <v>210</v>
-      </c>
-      <c r="J35" t="s">
-        <v>211</v>
-      </c>
-      <c r="K35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>262</v>
-      </c>
-      <c r="B37" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D37" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" t="s">
-        <v>206</v>
-      </c>
-      <c r="F37" t="s">
-        <v>278</v>
-      </c>
-      <c r="G37" t="s">
-        <v>208</v>
-      </c>
-      <c r="H37" t="s">
-        <v>209</v>
-      </c>
-      <c r="I37" t="s">
-        <v>210</v>
-      </c>
-      <c r="J37" t="s">
-        <v>211</v>
-      </c>
-      <c r="K37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>262</v>
-      </c>
-      <c r="B39" t="s">
-        <v>263</v>
-      </c>
-      <c r="C39" t="s">
-        <v>279</v>
-      </c>
-      <c r="D39" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" t="s">
-        <v>206</v>
-      </c>
-      <c r="F39" t="s">
-        <v>282</v>
-      </c>
-      <c r="G39" t="s">
-        <v>208</v>
-      </c>
-      <c r="H39" t="s">
-        <v>209</v>
-      </c>
-      <c r="I39" t="s">
-        <v>210</v>
-      </c>
-      <c r="J39" t="s">
-        <v>211</v>
-      </c>
-      <c r="K39" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>262</v>
-      </c>
-      <c r="B41" t="s">
-        <v>263</v>
-      </c>
-      <c r="C41" t="s">
-        <v>283</v>
-      </c>
-      <c r="D41" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" t="s">
-        <v>206</v>
-      </c>
-      <c r="F41" t="s">
-        <v>286</v>
-      </c>
-      <c r="G41" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" t="s">
-        <v>209</v>
-      </c>
-      <c r="I41" t="s">
-        <v>210</v>
-      </c>
-      <c r="J41" t="s">
-        <v>211</v>
-      </c>
-      <c r="K41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>262</v>
-      </c>
-      <c r="B43" t="s">
-        <v>263</v>
-      </c>
-      <c r="C43" t="s">
-        <v>287</v>
-      </c>
-      <c r="D43" t="s">
-        <v>198</v>
-      </c>
-      <c r="E43" t="s">
-        <v>206</v>
-      </c>
-      <c r="F43" t="s">
-        <v>290</v>
-      </c>
-      <c r="G43" t="s">
-        <v>208</v>
-      </c>
-      <c r="H43" t="s">
-        <v>209</v>
-      </c>
-      <c r="I43" t="s">
-        <v>210</v>
-      </c>
-      <c r="J43" t="s">
-        <v>211</v>
-      </c>
-      <c r="K43" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>262</v>
-      </c>
-      <c r="B45" t="s">
-        <v>291</v>
-      </c>
-      <c r="C45" t="s">
-        <v>292</v>
-      </c>
-      <c r="D45" t="s">
-        <v>198</v>
-      </c>
-      <c r="E45" t="s">
-        <v>206</v>
-      </c>
-      <c r="F45" t="s">
-        <v>295</v>
-      </c>
-      <c r="G45" t="s">
-        <v>208</v>
-      </c>
-      <c r="H45" t="s">
-        <v>209</v>
-      </c>
-      <c r="I45" t="s">
-        <v>210</v>
-      </c>
-      <c r="J45" t="s">
-        <v>211</v>
-      </c>
-      <c r="K45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>262</v>
-      </c>
-      <c r="B47" t="s">
-        <v>291</v>
-      </c>
-      <c r="C47" t="s">
-        <v>296</v>
-      </c>
-      <c r="D47" t="s">
-        <v>198</v>
-      </c>
-      <c r="E47" t="s">
-        <v>206</v>
-      </c>
-      <c r="F47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G47" t="s">
-        <v>208</v>
-      </c>
-      <c r="H47" t="s">
-        <v>209</v>
-      </c>
-      <c r="I47" t="s">
-        <v>210</v>
-      </c>
-      <c r="J47" t="s">
-        <v>211</v>
-      </c>
-      <c r="K47" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>262</v>
-      </c>
-      <c r="B49" t="s">
-        <v>291</v>
-      </c>
-      <c r="C49" t="s">
-        <v>300</v>
-      </c>
-      <c r="D49" t="s">
-        <v>198</v>
-      </c>
-      <c r="E49" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" t="s">
-        <v>303</v>
-      </c>
-      <c r="G49" t="s">
-        <v>208</v>
-      </c>
-      <c r="H49" t="s">
-        <v>209</v>
-      </c>
-      <c r="I49" t="s">
-        <v>210</v>
-      </c>
-      <c r="J49" t="s">
-        <v>211</v>
-      </c>
-      <c r="K49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>262</v>
-      </c>
-      <c r="B51" t="s">
-        <v>291</v>
-      </c>
-      <c r="C51" t="s">
-        <v>304</v>
-      </c>
-      <c r="D51" t="s">
-        <v>198</v>
-      </c>
-      <c r="E51" t="s">
-        <v>206</v>
-      </c>
-      <c r="F51" t="s">
-        <v>307</v>
-      </c>
-      <c r="G51" t="s">
-        <v>208</v>
-      </c>
-      <c r="H51" t="s">
-        <v>209</v>
-      </c>
-      <c r="I51" t="s">
-        <v>210</v>
-      </c>
-      <c r="J51" t="s">
-        <v>211</v>
-      </c>
-      <c r="K51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>262</v>
-      </c>
-      <c r="B53" t="s">
-        <v>308</v>
-      </c>
-      <c r="C53" t="s">
-        <v>309</v>
-      </c>
-      <c r="D53" t="s">
-        <v>198</v>
-      </c>
-      <c r="E53" t="s">
-        <v>206</v>
-      </c>
-      <c r="F53" t="s">
-        <v>312</v>
-      </c>
-      <c r="G53" t="s">
-        <v>208</v>
-      </c>
-      <c r="H53" t="s">
-        <v>209</v>
-      </c>
-      <c r="I53" t="s">
-        <v>210</v>
-      </c>
-      <c r="J53" t="s">
-        <v>211</v>
-      </c>
-      <c r="K53" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>262</v>
-      </c>
-      <c r="B55" t="s">
-        <v>308</v>
-      </c>
-      <c r="C55" t="s">
-        <v>313</v>
-      </c>
-      <c r="D55" t="s">
-        <v>198</v>
-      </c>
-      <c r="E55" t="s">
-        <v>206</v>
-      </c>
-      <c r="F55" t="s">
-        <v>316</v>
-      </c>
-      <c r="G55" t="s">
-        <v>208</v>
-      </c>
-      <c r="H55" t="s">
-        <v>209</v>
-      </c>
-      <c r="I55" t="s">
-        <v>210</v>
-      </c>
-      <c r="J55" t="s">
-        <v>211</v>
-      </c>
-      <c r="K55" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>262</v>
-      </c>
-      <c r="B57" t="s">
-        <v>308</v>
-      </c>
-      <c r="C57" t="s">
-        <v>317</v>
-      </c>
-      <c r="D57" t="s">
-        <v>198</v>
-      </c>
-      <c r="E57" t="s">
-        <v>206</v>
-      </c>
-      <c r="F57" t="s">
-        <v>320</v>
-      </c>
-      <c r="G57" t="s">
-        <v>208</v>
-      </c>
-      <c r="H57" t="s">
-        <v>209</v>
-      </c>
-      <c r="I57" t="s">
-        <v>210</v>
-      </c>
-      <c r="J57" t="s">
-        <v>211</v>
-      </c>
-      <c r="K57" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>262</v>
-      </c>
-      <c r="B59" t="s">
-        <v>263</v>
-      </c>
-      <c r="C59" t="s">
-        <v>268</v>
-      </c>
-      <c r="D59" t="s">
-        <v>321</v>
-      </c>
-      <c r="E59" t="s">
-        <v>322</v>
-      </c>
-      <c r="F59" t="s">
-        <v>328</v>
-      </c>
-      <c r="G59" t="s">
-        <v>324</v>
-      </c>
-      <c r="H59" t="s">
-        <v>325</v>
-      </c>
-      <c r="I59" t="s">
-        <v>326</v>
-      </c>
-      <c r="J59" t="s">
-        <v>327</v>
-      </c>
-      <c r="K59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>262</v>
-      </c>
-      <c r="B61" t="s">
-        <v>291</v>
-      </c>
-      <c r="C61" t="s">
-        <v>300</v>
-      </c>
-      <c r="D61" t="s">
-        <v>321</v>
-      </c>
-      <c r="E61" t="s">
-        <v>322</v>
-      </c>
-      <c r="F61" t="s">
-        <v>330</v>
-      </c>
-      <c r="G61" t="s">
-        <v>324</v>
-      </c>
-      <c r="H61" t="s">
-        <v>325</v>
-      </c>
-      <c r="I61" t="s">
-        <v>326</v>
-      </c>
-      <c r="J61" t="s">
-        <v>327</v>
-      </c>
-      <c r="K61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s">
-        <v>76</v>
-      </c>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-      <c r="I63" t="s">
-        <v>78</v>
-      </c>
-      <c r="J63" t="s">
-        <v>79</v>
-      </c>
-      <c r="K63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-      <c r="I65" t="s">
-        <v>78</v>
-      </c>
-      <c r="J65" t="s">
-        <v>79</v>
-      </c>
-      <c r="K65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" t="s">
-        <v>85</v>
-      </c>
-      <c r="F67" t="s">
-        <v>87</v>
-      </c>
-      <c r="G67" t="s">
-        <v>76</v>
-      </c>
-      <c r="H67" t="s">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s">
-        <v>78</v>
-      </c>
-      <c r="J67" t="s">
-        <v>79</v>
-      </c>
-      <c r="K67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" t="s">
-        <v>91</v>
-      </c>
-      <c r="F69" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" t="s">
-        <v>76</v>
-      </c>
-      <c r="H69" t="s">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s">
-        <v>78</v>
-      </c>
-      <c r="J69" t="s">
-        <v>79</v>
-      </c>
-      <c r="K69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" t="s">
-        <v>76</v>
-      </c>
-      <c r="H71" t="s">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s">
-        <v>78</v>
-      </c>
-      <c r="J71" t="s">
-        <v>79</v>
-      </c>
-      <c r="K71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" t="s">
-        <v>84</v>
-      </c>
-      <c r="E73" t="s">
-        <v>97</v>
-      </c>
-      <c r="F73" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" t="s">
-        <v>76</v>
-      </c>
-      <c r="H73" t="s">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s">
-        <v>78</v>
-      </c>
-      <c r="J73" t="s">
-        <v>79</v>
-      </c>
-      <c r="K73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" t="s">
-        <v>155</v>
-      </c>
-      <c r="D75" t="s">
-        <v>148</v>
-      </c>
-      <c r="E75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F75" t="s">
-        <v>156</v>
-      </c>
-      <c r="G75" t="s">
-        <v>151</v>
-      </c>
-      <c r="H75" t="s">
-        <v>152</v>
-      </c>
-      <c r="I75" t="s">
-        <v>153</v>
-      </c>
-      <c r="J75" t="s">
-        <v>154</v>
-      </c>
-      <c r="K75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" t="s">
-        <v>99</v>
-      </c>
-      <c r="C77" t="s">
-        <v>100</v>
-      </c>
-      <c r="D77" t="s">
-        <v>101</v>
-      </c>
-      <c r="E77" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" t="s">
-        <v>103</v>
-      </c>
-      <c r="G77" t="s">
-        <v>104</v>
-      </c>
-      <c r="H77" t="s">
-        <v>105</v>
-      </c>
-      <c r="I77" t="s">
-        <v>106</v>
-      </c>
-      <c r="J77" t="s">
-        <v>107</v>
-      </c>
-      <c r="K77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" t="s">
-        <v>102</v>
-      </c>
-      <c r="F79" t="s">
-        <v>112</v>
-      </c>
-      <c r="G79" t="s">
-        <v>104</v>
-      </c>
-      <c r="H79" t="s">
-        <v>105</v>
-      </c>
-      <c r="I79" t="s">
-        <v>106</v>
-      </c>
-      <c r="J79" t="s">
-        <v>107</v>
-      </c>
-      <c r="K79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" t="s">
-        <v>101</v>
-      </c>
-      <c r="E81" t="s">
-        <v>102</v>
-      </c>
-      <c r="F81" t="s">
-        <v>116</v>
-      </c>
-      <c r="G81" t="s">
-        <v>104</v>
-      </c>
-      <c r="H81" t="s">
-        <v>105</v>
-      </c>
-      <c r="I81" t="s">
-        <v>106</v>
-      </c>
-      <c r="J81" t="s">
-        <v>107</v>
-      </c>
-      <c r="K81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" t="s">
-        <v>119</v>
-      </c>
-      <c r="D83" t="s">
-        <v>101</v>
-      </c>
-      <c r="E83" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83" t="s">
-        <v>120</v>
-      </c>
-      <c r="G83" t="s">
-        <v>104</v>
-      </c>
-      <c r="H83" t="s">
-        <v>105</v>
-      </c>
-      <c r="I83" t="s">
-        <v>106</v>
-      </c>
-      <c r="J83" t="s">
-        <v>107</v>
-      </c>
-      <c r="K83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" t="s">
-        <v>99</v>
-      </c>
-      <c r="C85" t="s">
-        <v>123</v>
-      </c>
-      <c r="D85" t="s">
-        <v>101</v>
-      </c>
-      <c r="E85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F85" t="s">
-        <v>124</v>
-      </c>
-      <c r="G85" t="s">
-        <v>104</v>
-      </c>
-      <c r="H85" t="s">
-        <v>105</v>
-      </c>
-      <c r="I85" t="s">
-        <v>106</v>
-      </c>
-      <c r="J85" t="s">
-        <v>107</v>
-      </c>
-      <c r="K85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>70</v>
-      </c>
-      <c r="B87" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" t="s">
-        <v>127</v>
-      </c>
-      <c r="D87" t="s">
-        <v>101</v>
-      </c>
-      <c r="E87" t="s">
-        <v>102</v>
-      </c>
-      <c r="F87" t="s">
-        <v>128</v>
-      </c>
-      <c r="G87" t="s">
-        <v>104</v>
-      </c>
-      <c r="H87" t="s">
-        <v>105</v>
-      </c>
-      <c r="I87" t="s">
-        <v>106</v>
-      </c>
-      <c r="J87" t="s">
-        <v>107</v>
-      </c>
-      <c r="K87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" t="s">
-        <v>99</v>
-      </c>
-      <c r="C89" t="s">
-        <v>131</v>
-      </c>
-      <c r="D89" t="s">
-        <v>101</v>
-      </c>
-      <c r="E89" t="s">
-        <v>102</v>
-      </c>
-      <c r="F89" t="s">
-        <v>132</v>
-      </c>
-      <c r="G89" t="s">
-        <v>104</v>
-      </c>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-      <c r="I89" t="s">
-        <v>106</v>
-      </c>
-      <c r="J89" t="s">
-        <v>107</v>
-      </c>
-      <c r="K89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" t="s">
-        <v>135</v>
-      </c>
-      <c r="D91" t="s">
-        <v>101</v>
-      </c>
-      <c r="E91" t="s">
-        <v>102</v>
-      </c>
-      <c r="F91" t="s">
-        <v>136</v>
-      </c>
-      <c r="G91" t="s">
-        <v>104</v>
-      </c>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-      <c r="I91" t="s">
-        <v>106</v>
-      </c>
-      <c r="J91" t="s">
-        <v>107</v>
-      </c>
-      <c r="K91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93" t="s">
-        <v>58</v>
-      </c>
-      <c r="D93" t="s">
-        <v>101</v>
-      </c>
-      <c r="E93" t="s">
-        <v>138</v>
-      </c>
-      <c r="F93" t="s">
-        <v>141</v>
-      </c>
-      <c r="G93" t="s">
-        <v>104</v>
-      </c>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-      <c r="I93" t="s">
-        <v>106</v>
-      </c>
-      <c r="J93" t="s">
-        <v>140</v>
-      </c>
-      <c r="K93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>70</v>
-      </c>
-      <c r="B95" t="s">
-        <v>99</v>
-      </c>
-      <c r="C95" t="s">
-        <v>144</v>
-      </c>
-      <c r="D95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E95" t="s">
-        <v>138</v>
-      </c>
-      <c r="F95" t="s">
-        <v>145</v>
-      </c>
-      <c r="G95" t="s">
-        <v>104</v>
-      </c>
-      <c r="H95" t="s">
-        <v>105</v>
-      </c>
-      <c r="I95" t="s">
-        <v>106</v>
-      </c>
-      <c r="J95" t="s">
-        <v>140</v>
-      </c>
-      <c r="K95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
